--- a/biology/Médecine/LMNA/LMNA.xlsx
+++ b/biology/Médecine/LMNA/LMNA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">LMNA est un gène situé sur le chromosome 1 humain. Il permet la synthèse des lamines A et C par épissage alternatif.
 </t>
@@ -511,15 +523,17 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mutations de ce gènes sont impliquées dans plusieurs maladies, appelées laminopathies :
-cardiomyopathie dilatée[5]  se caractérisant par des troubles conductif, des arythmies ventriculaires, une survenue chez l'adulte jeune[6], un recours plus fréquent à une transplantation cardiaque[7] ;
-dystrophie musculaire d'Emery-Dreifuss[8] ;
-lipodystrophie familiale partielle[9] ;
-dystrophie musculaire des ceintures[10] ;
-progéria[11].
-Certaines maladies sont proches et la distinction entre ces syndromes n'est pas toujours nette, avec des manifestations pouvant recouvrir plusieurs de ces atteintes[12].
+cardiomyopathie dilatée  se caractérisant par des troubles conductif, des arythmies ventriculaires, une survenue chez l'adulte jeune, un recours plus fréquent à une transplantation cardiaque ;
+dystrophie musculaire d'Emery-Dreifuss ;
+lipodystrophie familiale partielle ;
+dystrophie musculaire des ceintures ;
+progéria.
+Certaines maladies sont proches et la distinction entre ces syndromes n'est pas toujours nette, avec des manifestations pouvant recouvrir plusieurs de ces atteintes.
 </t>
         </is>
       </c>
